--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_9_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_9_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.148047484854215, 4.7623542602068865]</t>
+          <t>[4.146708200554861, 4.76369354450624]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.08722041491856203, 0.2340205671406128]</t>
+          <t>[-0.0871860682324721, 0.2339862204545229]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.3622709397955375</v>
+        <v>0.3621692333569415</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3622709397955375</v>
+        <v>0.3621692333569415</v>
       </c>
       <c r="W2" t="n">
         <v>20.9321721721726</v>
